--- a/Diverse/Respektafstand_DS.xlsx
+++ b/Diverse/Respektafstand_DS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://niras-my.sharepoint.com/personal/jhaa_niras_dk/Documents/Documents/GitHub/Ledningsprotokol/Diverse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{740D3772-B975-4284-9D55-BC5025A28D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{740D3772-B975-4284-9D55-BC5025A28D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F7329B6-E864-4644-98EB-E5E3EC348C71}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AAB1B4F9-1114-4DB7-9D89-4C23C578F9FD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Levelnavn</t>
   </si>
@@ -44,7 +44,25 @@
     <t>Afstand</t>
   </si>
   <si>
-    <t>TX_L_FIS</t>
+    <t>TF_V_---_Ledn-_2</t>
+  </si>
+  <si>
+    <t>TF_F_TRA_Ledn-_2</t>
+  </si>
+  <si>
+    <t>TF_F_---_Ledn-_2</t>
+  </si>
+  <si>
+    <t>Beskrivelse</t>
+  </si>
+  <si>
+    <t>Vandledning</t>
+  </si>
+  <si>
+    <t>Fjernvarme fordeling</t>
+  </si>
+  <si>
+    <t>Fjernvarme Hovedtransm. Over ø200mm</t>
   </si>
 </sst>
 </file>
@@ -416,28 +434,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89F841A-F95B-4FE9-89F4-8E8D771F0742}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>0.4</v>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
